--- a/public/test-wacai.xlsx
+++ b/public/test-wacai.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="135">
   <si>
     <t>日期时间</t>
   </si>
@@ -197,9 +197,6 @@
     <t>虚拟交易记录</t>
   </si>
   <si>
-    <t>2025-12-15 20:37:00</t>
-  </si>
-  <si>
     <t>测试商家7</t>
   </si>
   <si>
@@ -329,18 +326,12 @@
     <t>测试商家22</t>
   </si>
   <si>
-    <t>2025-12-08 19:42:00</t>
-  </si>
-  <si>
     <t>购物/保健用品</t>
   </si>
   <si>
     <t>测试商家23</t>
   </si>
   <si>
-    <t>2025-12-08 22:14:00</t>
-  </si>
-  <si>
     <t>测试商家24</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
   </si>
   <si>
     <t>测试商家25</t>
-  </si>
-  <si>
-    <t>2025-12-11 21:16:00</t>
   </si>
   <si>
     <t>餐饮/水果零食</t>
@@ -1066,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1063,7 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1609,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.3173076923077" defaultRowHeight="16.8"/>
@@ -2114,8 +2103,8 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
+      <c r="A14" s="4">
+        <v>45945.8590277778</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>31</v>
@@ -2142,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>18</v>
@@ -2154,13 +2143,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3">
         <v>2111</v>
@@ -2181,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>18</v>
@@ -2193,13 +2182,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3">
         <v>2343</v>
@@ -2220,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>18</v>
@@ -2232,13 +2221,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3">
         <v>3876</v>
@@ -2259,25 +2248,25 @@
         <v>18</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3">
         <v>2316</v>
@@ -2286,7 +2275,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>29</v>
@@ -2298,7 +2287,7 @@
         <v>18</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>18</v>
@@ -2310,13 +2299,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3">
         <v>887</v>
@@ -2337,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>18</v>
@@ -2349,13 +2338,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3">
         <v>390</v>
@@ -2370,13 +2359,13 @@
         <v>17</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>18</v>
@@ -2388,13 +2377,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3">
         <v>36282</v>
@@ -2415,7 +2404,7 @@
         <v>18</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>18</v>
@@ -2427,7 +2416,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>31</v>
@@ -2454,7 +2443,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>18</v>
@@ -2466,13 +2455,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3">
         <v>34005</v>
@@ -2493,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>18</v>
@@ -2505,7 +2494,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>31</v>
@@ -2523,16 +2512,16 @@
         <v>16</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>18</v>
@@ -2544,13 +2533,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3">
         <v>3154</v>
@@ -2562,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>33</v>
@@ -2571,7 +2560,7 @@
         <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>18</v>
@@ -2583,13 +2572,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3">
         <v>831</v>
@@ -2610,7 +2599,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>18</v>
@@ -2622,13 +2611,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3">
         <v>19057</v>
@@ -2637,19 +2626,19 @@
         <v>15</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>18</v>
@@ -2661,13 +2650,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="3">
         <v>1260</v>
@@ -2682,13 +2671,13 @@
         <v>17</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>18</v>
@@ -2700,13 +2689,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="3">
         <v>90756</v>
@@ -2718,7 +2707,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>42</v>
@@ -2727,25 +2716,25 @@
         <v>18</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="3" t="s">
-        <v>100</v>
+      <c r="A30" s="4">
+        <v>45969.8208333333</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="3">
         <v>7922</v>
@@ -2766,7 +2755,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>18</v>
@@ -2777,14 +2766,14 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
-        <v>103</v>
+      <c r="A31" s="4">
+        <v>45969.9263888889</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="3">
         <v>7124</v>
@@ -2793,10 +2782,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>33</v>
@@ -2805,7 +2794,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>18</v>
@@ -2817,7 +2806,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
@@ -2844,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>18</v>
@@ -2855,14 +2844,14 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>107</v>
+      <c r="A33" s="4">
+        <v>45941.8861111111</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D33" s="3">
         <v>768</v>
@@ -2871,10 +2860,10 @@
         <v>15</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>33</v>
@@ -2883,7 +2872,7 @@
         <v>18</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>18</v>
@@ -2895,13 +2884,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="3">
         <v>1982</v>
@@ -2916,13 +2905,13 @@
         <v>17</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>18</v>
@@ -2934,7 +2923,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>31</v>
@@ -2961,19 +2950,19 @@
         <v>18</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>31</v>
@@ -2988,7 +2977,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>17</v>
@@ -3000,25 +2989,25 @@
         <v>18</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="3">
         <v>1197</v>
@@ -3039,7 +3028,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>18</v>
@@ -3051,13 +3040,13 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2">
         <v>575</v>
@@ -3066,10 +3055,10 @@
         <v>15</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>42</v>
@@ -3090,13 +3079,13 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D39" s="2">
         <v>400</v>
@@ -3105,7 +3094,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>21</v>
@@ -3129,13 +3118,13 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D40" s="2">
         <v>300</v>
@@ -3144,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>21</v>
@@ -3168,13 +3157,13 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2">
         <v>3500</v>
@@ -3183,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>21</v>
@@ -3205,13 +3194,13 @@
     </row>
     <row r="42" s="1" customFormat="1" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2">
         <v>1000</v>
@@ -3220,10 +3209,10 @@
         <v>15</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>42</v>
@@ -3244,13 +3233,13 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2">
         <v>500</v>
@@ -3259,7 +3248,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>21</v>
@@ -3283,13 +3272,13 @@
     </row>
     <row r="44" s="1" customFormat="1" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2">
         <v>4000</v>
@@ -3298,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>17</v>
